--- a/.temp/ExcelTableToMarkDownSample.xlsx
+++ b/.temp/ExcelTableToMarkDownSample.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\.Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\.temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E71D205-5BE9-44EB-8EE1-F541E74B196D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AE72D-A912-4927-B826-36FB59313A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -52,106 +51,28 @@
     <t>---</t>
   </si>
   <si>
-    <t>Instrucción</t>
-  </si>
-  <si>
-    <t>Explicación</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adds the total value for the specified field. </t>
-  </si>
-  <si>
-    <t>MEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Calculates the average for the specified field. </t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finds the smallest value for all records of the specified field. </t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finds the largest value for all records of the specified field. </t>
-  </si>
-  <si>
-    <t>RANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finds the range of values (MAX minus MIN) for the specified field. </t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finds the standard deviation on values in the specified field.</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finds the number of values included in statistical calculations. This counts each value except null values. To determine the number of null values in a field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> use the COUNT statistic on the field in question</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and a COUNT statistic on a different field which does not contain nulls (for example</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the OID if present)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> then subtract the two values. </t>
-  </si>
-  <si>
-    <t>FIRST</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finds the first record in the Input Table and uses its specified field value. </t>
-  </si>
-  <si>
-    <t>LAST</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finds the last record in the Input Table and uses its specified field value.</t>
-  </si>
-  <si>
     <t>Desktop</t>
   </si>
   <si>
     <t>Pro</t>
   </si>
   <si>
-    <t>Directorio</t>
+    <t>Alcance</t>
   </si>
   <si>
-    <t>/Datos</t>
+    <t>Microcontenido</t>
   </si>
   <si>
-    <t>/Mapas</t>
+    <t>Descarga de catálogo de estaciones, zonas hidrográficas y definición de extensión espacial</t>
   </si>
   <si>
-    <t>/Output</t>
+    <t>Luego de la definición del caso de estudio realizada en la Sección 1, es necesario identificar la red de estaciones terrestres que serán utilizadas para el estudio de las diferentes variables en estudio.</t>
   </si>
   <si>
-    <t>Directorio de datos de entrada.</t>
+    <t>Para la creación de los mapas requeridos para la realización del balance hidrológico, es necesario identificar y seleccionar el conjunto de estaciones que serán utilizadas para obtener las series de valores discretos de precipitación diaria total, temperatura y evaporación potencial.</t>
   </si>
   <si>
-    <t>Directorio con mapas para visualización de resultados en ArcGIS for Desktop, ArcGIS Pro y QGIS.</t>
-  </si>
-  <si>
-    <t>Directorio de salida de capa filtrada y archivos de resultados estadísticos.</t>
+    <t>Obtención de series de datos discretos climatológicos de estaciones terrestres</t>
   </si>
 </sst>
 </file>
@@ -565,21 +486,21 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14.6" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="68" style="1" customWidth="1"/>
     <col min="3" max="3" width="79" style="1" customWidth="1"/>
     <col min="4" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="74.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="2.75" style="1" customWidth="1"/>
+    <col min="7" max="9" width="74.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -597,34 +518,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Directorio | Descripción |</v>
+        <v>| Microcontenido | Alcance |</v>
       </c>
       <c r="H3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Directorio | Descripción | Desktop |</v>
+        <v>| Microcontenido | Alcance | Desktop |</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Directorio | Descripción | Desktop | Pro |</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>| Microcontenido | Alcance | Desktop | Pro |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -651,76 +572,72 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="43.75" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| /Datos | Directorio de datos de entrada. |</v>
+        <v>| Descarga de catálogo de estaciones, zonas hidrográficas y definición de extensión espacial | Luego de la definición del caso de estudio realizada en la Sección 1, es necesario identificar la red de estaciones terrestres que serán utilizadas para el estudio de las diferentes variables en estudio. |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H24" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| /Datos | Directorio de datos de entrada. |  |</v>
+        <v>| Descarga de catálogo de estaciones, zonas hidrográficas y definición de extensión espacial | Luego de la definición del caso de estudio realizada en la Sección 1, es necesario identificar la red de estaciones terrestres que serán utilizadas para el estudio de las diferentes variables en estudio. |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I67" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| /Datos | Directorio de datos de entrada. |  |  |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>| Descarga de catálogo de estaciones, zonas hidrográficas y definición de extensión espacial | Luego de la definición del caso de estudio realizada en la Sección 1, es necesario identificar la red de estaciones terrestres que serán utilizadas para el estudio de las diferentes variables en estudio. |  |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G24" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| /Mapas | Directorio con mapas para visualización de resultados en ArcGIS for Desktop, ArcGIS Pro y QGIS. |</v>
+        <v>| Obtención de series de datos discretos climatológicos de estaciones terrestres | Para la creación de los mapas requeridos para la realización del balance hidrológico, es necesario identificar y seleccionar el conjunto de estaciones que serán utilizadas para obtener las series de valores discretos de precipitación diaria total, temperatura y evaporación potencial. |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| /Mapas | Directorio con mapas para visualización de resultados en ArcGIS for Desktop, ArcGIS Pro y QGIS. |  |</v>
+        <v>| Obtención de series de datos discretos climatológicos de estaciones terrestres | Para la creación de los mapas requeridos para la realización del balance hidrológico, es necesario identificar y seleccionar el conjunto de estaciones que serán utilizadas para obtener las series de valores discretos de precipitación diaria total, temperatura y evaporación potencial. |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| /Mapas | Directorio con mapas para visualización de resultados en ArcGIS for Desktop, ArcGIS Pro y QGIS. |  |  |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>| Obtención de series de datos discretos climatológicos de estaciones terrestres | Para la creación de los mapas requeridos para la realización del balance hidrológico, es necesario identificar y seleccionar el conjunto de estaciones que serán utilizadas para obtener las series de valores discretos de precipitación diaria total, temperatura y evaporación potencial. |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="58.3" x14ac:dyDescent="0.45">
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| /Output | Directorio de salida de capa filtrada y archivos de resultados estadísticos. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| /Output | Directorio de salida de capa filtrada y archivos de resultados estadísticos. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| /Output | Directorio de salida de capa filtrada y archivos de resultados estadísticos. |  |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="58.3" x14ac:dyDescent="0.45">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -739,7 +656,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -758,7 +675,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -777,7 +694,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -796,7 +713,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="102" x14ac:dyDescent="0.45">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -815,7 +732,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -834,7 +751,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -853,7 +770,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="102" x14ac:dyDescent="0.45">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -872,7 +789,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -891,7 +808,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -910,7 +827,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -929,7 +846,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -948,7 +865,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -967,7 +884,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -986,7 +903,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1005,7 +922,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1024,7 +941,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1043,7 +960,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1062,7 +979,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1081,7 +998,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1100,7 +1017,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1119,7 +1036,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1138,7 +1055,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1157,7 +1074,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1176,7 +1093,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1195,7 +1112,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1214,7 +1131,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1233,7 +1150,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1252,7 +1169,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1271,7 +1188,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1290,7 +1207,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1309,7 +1226,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1328,7 +1245,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1347,7 +1264,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1366,7 +1283,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1385,7 +1302,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1404,7 +1321,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1423,7 +1340,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1442,7 +1359,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1461,7 +1378,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1480,7 +1397,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1499,7 +1416,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1518,7 +1435,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1537,7 +1454,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1556,7 +1473,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1575,7 +1492,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1594,7 +1511,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1613,7 +1530,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1632,7 +1549,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1651,7 +1568,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1670,7 +1587,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1689,7 +1606,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1708,7 +1625,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1727,7 +1644,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1746,7 +1663,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1765,7 +1682,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1784,7 +1701,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1803,7 +1720,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1822,7 +1739,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1841,7 +1758,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1860,7 +1777,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1879,7 +1796,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1898,7 +1815,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -1917,7 +1834,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -1936,7 +1853,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -1955,7 +1872,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -1974,7 +1891,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -1993,7 +1910,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -2012,7 +1929,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -2031,7 +1948,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -2050,7 +1967,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -2069,7 +1986,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -2088,7 +2005,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -2107,7 +2024,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -2126,7 +2043,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -2145,7 +2062,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -2164,7 +2081,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -2183,7 +2100,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -2202,7 +2119,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -2221,7 +2138,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -2240,7 +2157,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -2259,7 +2176,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -2278,7 +2195,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -2297,7 +2214,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -2316,7 +2233,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -2335,7 +2252,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -2354,7 +2271,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -2373,7 +2290,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -2392,7 +2309,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -2411,7 +2328,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -2430,7 +2347,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -2449,7 +2366,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -2468,7 +2385,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -2487,7 +2404,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -2506,7 +2423,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -2525,7 +2442,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -2548,116 +2465,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E841DB0-A52A-4B8E-BF88-9BC07F3D477C}">
-  <dimension ref="B2:G11"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="158.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/.temp/ExcelTableToMarkDownSample.xlsx
+++ b/.temp/ExcelTableToMarkDownSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\.temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AE72D-A912-4927-B826-36FB59313A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACA91BA-DEB8-474D-ADF6-3C9026CDB6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -63,16 +63,22 @@
     <t>Microcontenido</t>
   </si>
   <si>
-    <t>Descarga de catálogo de estaciones, zonas hidrográficas y definición de extensión espacial</t>
+    <t>En los procesos de interpolación de variables climatológicas y partir de la localización de estaciones terrestres para los fenómenos asociados a cambio climático, se generan diferentes mapas continuos que permitirán obtener caudales medios de datos compuestos, neutros y para fenómenos extremos de Niña y Niño.</t>
   </si>
   <si>
-    <t>Luego de la definición del caso de estudio realizada en la Sección 1, es necesario identificar la red de estaciones terrestres que serán utilizadas para el estudio de las diferentes variables en estudio.</t>
+    <t>En esta actividad se evalúan las series terrestres de evaporación potencial obtenidas a partir de estaciones terrestres y se crean mapas interpolados a partir de métodos de regionalización como Cenicafé. Si bien, durante los procesos de recolección y análisis de información a partir de estaciones se obtienen series de evapotranspiración potencial, generalmente el número de estaciones y su localización no son suficientes para generar un mapa que cubra la totalidad de la zona de estudio.</t>
   </si>
   <si>
-    <t>Para la creación de los mapas requeridos para la realización del balance hidrológico, es necesario identificar y seleccionar el conjunto de estaciones que serán utilizadas para obtener las series de valores discretos de precipitación diaria total, temperatura y evaporación potencial.</t>
+    <t>En esta actividad se presentan diferentes metodologías para la obtención de mapas de evapotranspiración real a partir de métodos de regionalización tales como Budyco, Turc y Dekop</t>
   </si>
   <si>
-    <t>Obtención de series de datos discretos climatológicos de estaciones terrestres</t>
+    <t>Interpolación espacial de variables climatológicas</t>
+  </si>
+  <si>
+    <t>Mapa de evapotranspiración potencial - ETP</t>
+  </si>
+  <si>
+    <t>Mapa de evapotranspiración real - ETR</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14.6" x14ac:dyDescent="0.45"/>
@@ -572,69 +578,73 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="43.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| Descarga de catálogo de estaciones, zonas hidrográficas y definición de extensión espacial | Luego de la definición del caso de estudio realizada en la Sección 1, es necesario identificar la red de estaciones terrestres que serán utilizadas para el estudio de las diferentes variables en estudio. |</v>
+        <v>| Interpolación espacial de variables climatológicas | En los procesos de interpolación de variables climatológicas y partir de la localización de estaciones terrestres para los fenómenos asociados a cambio climático, se generan diferentes mapas continuos que permitirán obtener caudales medios de datos compuestos, neutros y para fenómenos extremos de Niña y Niño. |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H24" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| Descarga de catálogo de estaciones, zonas hidrográficas y definición de extensión espacial | Luego de la definición del caso de estudio realizada en la Sección 1, es necesario identificar la red de estaciones terrestres que serán utilizadas para el estudio de las diferentes variables en estudio. |  |</v>
+        <v>| Interpolación espacial de variables climatológicas | En los procesos de interpolación de variables climatológicas y partir de la localización de estaciones terrestres para los fenómenos asociados a cambio climático, se generan diferentes mapas continuos que permitirán obtener caudales medios de datos compuestos, neutros y para fenómenos extremos de Niña y Niño. |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I67" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| Descarga de catálogo de estaciones, zonas hidrográficas y definición de extensión espacial | Luego de la definición del caso de estudio realizada en la Sección 1, es necesario identificar la red de estaciones terrestres que serán utilizadas para el estudio de las diferentes variables en estudio. |  |  |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
+        <v>| Interpolación espacial de variables climatológicas | En los procesos de interpolación de variables climatológicas y partir de la localización de estaciones terrestres para los fenómenos asociados a cambio climático, se generan diferentes mapas continuos que permitirán obtener caudales medios de datos compuestos, neutros y para fenómenos extremos de Niña y Niño. |  |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="102" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G24" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| Obtención de series de datos discretos climatológicos de estaciones terrestres | Para la creación de los mapas requeridos para la realización del balance hidrológico, es necesario identificar y seleccionar el conjunto de estaciones que serán utilizadas para obtener las series de valores discretos de precipitación diaria total, temperatura y evaporación potencial. |</v>
+        <v>| Mapa de evapotranspiración potencial - ETP | En esta actividad se evalúan las series terrestres de evaporación potencial obtenidas a partir de estaciones terrestres y se crean mapas interpolados a partir de métodos de regionalización como Cenicafé. Si bien, durante los procesos de recolección y análisis de información a partir de estaciones se obtienen series de evapotranspiración potencial, generalmente el número de estaciones y su localización no son suficientes para generar un mapa que cubra la totalidad de la zona de estudio. |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Obtención de series de datos discretos climatológicos de estaciones terrestres | Para la creación de los mapas requeridos para la realización del balance hidrológico, es necesario identificar y seleccionar el conjunto de estaciones que serán utilizadas para obtener las series de valores discretos de precipitación diaria total, temperatura y evaporación potencial. |  |</v>
+        <v>| Mapa de evapotranspiración potencial - ETP | En esta actividad se evalúan las series terrestres de evaporación potencial obtenidas a partir de estaciones terrestres y se crean mapas interpolados a partir de métodos de regionalización como Cenicafé. Si bien, durante los procesos de recolección y análisis de información a partir de estaciones se obtienen series de evapotranspiración potencial, generalmente el número de estaciones y su localización no son suficientes para generar un mapa que cubra la totalidad de la zona de estudio. |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Obtención de series de datos discretos climatológicos de estaciones terrestres | Para la creación de los mapas requeridos para la realización del balance hidrológico, es necesario identificar y seleccionar el conjunto de estaciones que serán utilizadas para obtener las series de valores discretos de precipitación diaria total, temperatura y evaporación potencial. |  |  |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="58.3" x14ac:dyDescent="0.45">
-      <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
+        <v>| Mapa de evapotranspiración potencial - ETP | En esta actividad se evalúan las series terrestres de evaporación potencial obtenidas a partir de estaciones terrestres y se crean mapas interpolados a partir de métodos de regionalización como Cenicafé. Si bien, durante los procesos de recolección y análisis de información a partir de estaciones se obtienen series de evapotranspiración potencial, generalmente el número de estaciones y su localización no son suficientes para generar un mapa que cubra la totalidad de la zona de estudio. |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="43.75" x14ac:dyDescent="0.45">
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|  |  |</v>
+        <v>| Mapa de evapotranspiración real - ETR | En esta actividad se presentan diferentes metodologías para la obtención de mapas de evapotranspiración real a partir de métodos de regionalización tales como Budyco, Turc y Dekop |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| Mapa de evapotranspiración real - ETR | En esta actividad se presentan diferentes metodologías para la obtención de mapas de evapotranspiración real a partir de métodos de regionalización tales como Budyco, Turc y Dekop |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
+        <v>| Mapa de evapotranspiración real - ETR | En esta actividad se presentan diferentes metodologías para la obtención de mapas de evapotranspiración real a partir de métodos de regionalización tales como Budyco, Turc y Dekop |  |  |</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="58.3" x14ac:dyDescent="0.45">
@@ -656,7 +666,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" ht="58.3" x14ac:dyDescent="0.45">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -675,7 +685,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:9" ht="58.3" x14ac:dyDescent="0.45">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -713,7 +723,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="102" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -732,7 +742,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -751,7 +761,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>

--- a/.temp/ExcelTableToMarkDownSample.xlsx
+++ b/.temp/ExcelTableToMarkDownSample.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\.temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACA91BA-DEB8-474D-ADF6-3C9026CDB6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A9D069-4C0F-4093-8F0E-C355AF79891C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Toc107986980" localSheetId="0">Sample!$B$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -63,22 +66,16 @@
     <t>Microcontenido</t>
   </si>
   <si>
-    <t>En los procesos de interpolación de variables climatológicas y partir de la localización de estaciones terrestres para los fenómenos asociados a cambio climático, se generan diferentes mapas continuos que permitirán obtener caudales medios de datos compuestos, neutros y para fenómenos extremos de Niña y Niño.</t>
+    <t>Modelos de correlación lineal múltiple</t>
   </si>
   <si>
-    <t>En esta actividad se evalúan las series terrestres de evaporación potencial obtenidas a partir de estaciones terrestres y se crean mapas interpolados a partir de métodos de regionalización como Cenicafé. Si bien, durante los procesos de recolección y análisis de información a partir de estaciones se obtienen series de evapotranspiración potencial, generalmente el número de estaciones y su localización no son suficientes para generar un mapa que cubra la totalidad de la zona de estudio.</t>
+    <t>Modelos de inteligencia artificial</t>
   </si>
   <si>
-    <t>En esta actividad se presentan diferentes metodologías para la obtención de mapas de evapotranspiración real a partir de métodos de regionalización tales como Budyco, Turc y Dekop</t>
+    <t>A través del conocimiento adquirido en los diferentes procesos realizados para la obtención de los mapas de balance y el estudio de las series utilizadas, se puede evidenciar la correlación entre las variables y los fenómenos evaluados, permitiendo entender su dinámica para la implementación de un modelo de pronóstico.</t>
   </si>
   <si>
-    <t>Interpolación espacial de variables climatológicas</t>
-  </si>
-  <si>
-    <t>Mapa de evapotranspiración potencial - ETP</t>
-  </si>
-  <si>
-    <t>Mapa de evapotranspiración real - ETR</t>
+    <t>Utilizando técnicas de inteligencia artificial para el análisis de series, implementar modelos que permitan realizar el pronóstico de las variables estudiadas para su posterior utilización en la realización de balances hidrológicos.</t>
   </si>
 </sst>
 </file>
@@ -492,7 +489,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G7"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14.6" x14ac:dyDescent="0.45"/>
@@ -578,76 +575,72 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" ht="58.3" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| Interpolación espacial de variables climatológicas | En los procesos de interpolación de variables climatológicas y partir de la localización de estaciones terrestres para los fenómenos asociados a cambio climático, se generan diferentes mapas continuos que permitirán obtener caudales medios de datos compuestos, neutros y para fenómenos extremos de Niña y Niño. |</v>
+        <v>| Modelos de correlación lineal múltiple | A través del conocimiento adquirido en los diferentes procesos realizados para la obtención de los mapas de balance y el estudio de las series utilizadas, se puede evidenciar la correlación entre las variables y los fenómenos evaluados, permitiendo entender su dinámica para la implementación de un modelo de pronóstico. |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H24" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| Interpolación espacial de variables climatológicas | En los procesos de interpolación de variables climatológicas y partir de la localización de estaciones terrestres para los fenómenos asociados a cambio climático, se generan diferentes mapas continuos que permitirán obtener caudales medios de datos compuestos, neutros y para fenómenos extremos de Niña y Niño. |  |</v>
+        <v>| Modelos de correlación lineal múltiple | A través del conocimiento adquirido en los diferentes procesos realizados para la obtención de los mapas de balance y el estudio de las series utilizadas, se puede evidenciar la correlación entre las variables y los fenómenos evaluados, permitiendo entender su dinámica para la implementación de un modelo de pronóstico. |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I67" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| Interpolación espacial de variables climatológicas | En los procesos de interpolación de variables climatológicas y partir de la localización de estaciones terrestres para los fenómenos asociados a cambio climático, se generan diferentes mapas continuos que permitirán obtener caudales medios de datos compuestos, neutros y para fenómenos extremos de Niña y Niño. |  |  |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="102" x14ac:dyDescent="0.45">
+        <v>| Modelos de correlación lineal múltiple | A través del conocimiento adquirido en los diferentes procesos realizados para la obtención de los mapas de balance y el estudio de las series utilizadas, se puede evidenciar la correlación entre las variables y los fenómenos evaluados, permitiendo entender su dinámica para la implementación de un modelo de pronóstico. |  |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="58.3" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G24" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| Mapa de evapotranspiración potencial - ETP | En esta actividad se evalúan las series terrestres de evaporación potencial obtenidas a partir de estaciones terrestres y se crean mapas interpolados a partir de métodos de regionalización como Cenicafé. Si bien, durante los procesos de recolección y análisis de información a partir de estaciones se obtienen series de evapotranspiración potencial, generalmente el número de estaciones y su localización no son suficientes para generar un mapa que cubra la totalidad de la zona de estudio. |</v>
+        <v>| Modelos de inteligencia artificial | Utilizando técnicas de inteligencia artificial para el análisis de series, implementar modelos que permitan realizar el pronóstico de las variables estudiadas para su posterior utilización en la realización de balances hidrológicos. |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Mapa de evapotranspiración potencial - ETP | En esta actividad se evalúan las series terrestres de evaporación potencial obtenidas a partir de estaciones terrestres y se crean mapas interpolados a partir de métodos de regionalización como Cenicafé. Si bien, durante los procesos de recolección y análisis de información a partir de estaciones se obtienen series de evapotranspiración potencial, generalmente el número de estaciones y su localización no son suficientes para generar un mapa que cubra la totalidad de la zona de estudio. |  |</v>
+        <v>| Modelos de inteligencia artificial | Utilizando técnicas de inteligencia artificial para el análisis de series, implementar modelos que permitan realizar el pronóstico de las variables estudiadas para su posterior utilización en la realización de balances hidrológicos. |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Mapa de evapotranspiración potencial - ETP | En esta actividad se evalúan las series terrestres de evaporación potencial obtenidas a partir de estaciones terrestres y se crean mapas interpolados a partir de métodos de regionalización como Cenicafé. Si bien, durante los procesos de recolección y análisis de información a partir de estaciones se obtienen series de evapotranspiración potencial, generalmente el número de estaciones y su localización no son suficientes para generar un mapa que cubra la totalidad de la zona de estudio. |  |  |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="43.75" x14ac:dyDescent="0.45">
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>| Modelos de inteligencia artificial | Utilizando técnicas de inteligencia artificial para el análisis de series, implementar modelos que permitan realizar el pronóstico de las variables estudiadas para su posterior utilización en la realización de balances hidrológicos. |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Mapa de evapotranspiración real - ETR | En esta actividad se presentan diferentes metodologías para la obtención de mapas de evapotranspiración real a partir de métodos de regionalización tales como Budyco, Turc y Dekop |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Mapa de evapotranspiración real - ETR | En esta actividad se presentan diferentes metodologías para la obtención de mapas de evapotranspiración real a partir de métodos de regionalización tales como Budyco, Turc y Dekop |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Mapa de evapotranspiración real - ETR | En esta actividad se presentan diferentes metodologías para la obtención de mapas de evapotranspiración real a partir de métodos de regionalización tales como Budyco, Turc y Dekop |  |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="58.3" x14ac:dyDescent="0.45">
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -685,7 +678,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="58.3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>

--- a/.temp/ExcelTableToMarkDownSample.xlsx
+++ b/.temp/ExcelTableToMarkDownSample.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\.temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A9D069-4C0F-4093-8F0E-C355AF79891C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EDE3DC-8A36-478E-9792-FC4CBCF2C6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
+    <sheet name="RefsFile" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_Toc107986980" localSheetId="1">RefsFile!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="0">Sample!$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -76,6 +78,18 @@
   </si>
   <si>
     <t>Utilizando técnicas de inteligencia artificial para el análisis de series, implementar modelos que permitan realizar el pronóstico de las variables estudiadas para su posterior utilización en la realización de balances hidrológicos.</t>
+  </si>
+  <si>
+    <t>[book_0.1.0.pdf](https://github.com/rcfdtools/R.LTWB/blob/main/.refs/book_0.1.0.pdf)</t>
+  </si>
+  <si>
+    <t>Archivo local</t>
+  </si>
+  <si>
+    <t>Referencia y enlace público</t>
+  </si>
+  <si>
+    <t>[Python in Hydrology by Mr. Sat Kumar Tomer](https://code.google.com/archive/p/python-in-hydrology/downloads)</t>
   </si>
 </sst>
 </file>
@@ -487,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2E19A4-40DE-42A8-B3E2-A2516218588C}">
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3:G6"/>
     </sheetView>
@@ -575,7 +589,7 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="58.3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
@@ -640,7 +654,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -659,7 +673,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="58.3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -697,7 +711,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -716,7 +730,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="72.900000000000006" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -773,7 +787,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="102" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2468,4 +2482,1987 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB6E6C-1D05-499A-989F-C261220A1AD3}">
+  <dimension ref="B2:I103"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14.6" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.75" style="1" customWidth="1"/>
+    <col min="7" max="9" width="74.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
+        <v>| Archivo local | Referencia y enlace público |</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
+        <v>| Archivo local | Referencia y enlace público | Desktop |</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
+        <v>| Archivo local | Referencia y enlace público | Desktop | Pro |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
+        <v>|---|---|</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
+        <v>|---|---|---|</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
+        <v>|---|---|---|---|</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="29.15" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
+        <v>| [book_0.1.0.pdf](https://github.com/rcfdtools/R.LTWB/blob/main/.refs/book_0.1.0.pdf) | [Python in Hydrology by Mr. Sat Kumar Tomer](https://code.google.com/archive/p/python-in-hydrology/downloads) |</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
+        <v>| [book_0.1.0.pdf](https://github.com/rcfdtools/R.LTWB/blob/main/.refs/book_0.1.0.pdf) | [Python in Hydrology by Mr. Sat Kumar Tomer](https://code.google.com/archive/p/python-in-hydrology/downloads) |  |</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
+        <v>| [book_0.1.0.pdf](https://github.com/rcfdtools/R.LTWB/blob/main/.refs/book_0.1.0.pdf) | [Python in Hydrology by Mr. Sat Kumar Tomer](https://code.google.com/archive/p/python-in-hydrology/downloads) |  |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="58.3" x14ac:dyDescent="0.45">
+      <c r="B6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="str">
+        <f t="shared" ref="G6:G69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <f t="shared" ref="H69:H132" si="3">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f t="shared" ref="I69:I104" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5" t="str">
+        <f t="shared" ref="G70:G133" si="5">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I74" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H76" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H82" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I82" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H84" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I84" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H86" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I86" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H87" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H88" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I88" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H89" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H90" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I90" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H92" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I92" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H94" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H95" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H96" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I96" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H97" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H98" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I98" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I100" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I102" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H103" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I103" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/.temp/ExcelTableToMarkDownSample.xlsx
+++ b/.temp/ExcelTableToMarkDownSample.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\.temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E08083-11B3-4663-A097-FCEC4576B044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4229E9-2387-4435-8C89-71492921282C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc107986980" localSheetId="0">Sample!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="1">Sample1!$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,8 +28,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="107">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -209,18 +214,172 @@
   </si>
   <si>
     <t>Observación / Categoría</t>
+  </si>
+  <si>
+    <t>Atributo</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>CodigoEstacion</t>
+  </si>
+  <si>
+    <t>NombreEstacion</t>
+  </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Altitud</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Entidad</t>
+  </si>
+  <si>
+    <t>AreaOperativa</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>FechaInstalacion</t>
+  </si>
+  <si>
+    <t>FechaSuspension</t>
+  </si>
+  <si>
+    <t>IdParametro</t>
+  </si>
+  <si>
+    <t>Etiqueta</t>
+  </si>
+  <si>
+    <t>DescripcionSerie</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Grado</t>
+  </si>
+  <si>
+    <t>Calificador</t>
+  </si>
+  <si>
+    <t>NivelAprobacion</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>datetime64</t>
+  </si>
+  <si>
+    <t>Código de la estación.</t>
+  </si>
+  <si>
+    <t>Nombre de la estación. Incluye el código de la estación entre corchetes.</t>
+  </si>
+  <si>
+    <t>Latitud en grados decimales.</t>
+  </si>
+  <si>
+    <t>Longitud en grados decimales.</t>
+  </si>
+  <si>
+    <t>Altitud o cota sobre el nivel del mar en metros.</t>
+  </si>
+  <si>
+    <t>Categoría de la estación: Pluviométrica, Limnimétrica, Limnigráfica, Climática Ordinaria, Climática Principal, Pluviográfica, Meteorológica Especial, Agrometeorológica, Sinóptica Principal, Radio Sonda, Mareográfica, Sinóptica Secundaria.</t>
+  </si>
+  <si>
+    <t>Entidad encargada.</t>
+  </si>
+  <si>
+    <t>Área operativa que administra la estación. AREA_OPERA en archivos Shapefile.</t>
+  </si>
+  <si>
+    <t>Departamento o zonificación política. Equivalente a estados en otros países. DEPARTAMEN en archivos Shapefile.</t>
+  </si>
+  <si>
+    <t>Municipio o subzonificación política. Equivalente a condado en otros países.</t>
+  </si>
+  <si>
+    <t>Fecha de instalación. FECHA_INST en archivos dBase.</t>
+  </si>
+  <si>
+    <t>Fecha de suspensión. FECHA_SUSP en archivos dBase.</t>
+  </si>
+  <si>
+    <t>Nombre del parámetro hidro-climatológico. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos.</t>
+  </si>
+  <si>
+    <t>Etiqueta del parámetro que depende si es una variable básica o derivada. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos.</t>
+  </si>
+  <si>
+    <t>Descripción de la etiqueta del parámetro que indica el nombre del parámetro el estadístico y la frecuencia. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos.</t>
+  </si>
+  <si>
+    <t>Frecuencia de captura o de cálculo. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos.</t>
+  </si>
+  <si>
+    <t>Fecha de registro.</t>
+  </si>
+  <si>
+    <t>Valor registrado.</t>
+  </si>
+  <si>
+    <t>Grado del dato, p. ej. -1, 4, 5, 50.</t>
+  </si>
+  <si>
+    <t>Nivel de aprobación.</t>
+  </si>
+  <si>
+    <t>Calificador del dato registrado, p. ej. Dudoso, Est. Interpolación, Est. Otros métodos, Est. Regresión, Estimado, Río Seco, Sección Inestable.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Segoe UI Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -234,16 +393,309 @@
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -271,9 +723,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -283,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -292,18 +893,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="41" xr:uid="{2D06E641-BF8A-45C3-B403-2D323D5F293E}"/>
+    <cellStyle name="Note 2" xfId="42" xr:uid="{97716C7B-F92D-4DA8-BC18-20B1DF81F536}"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,6 +1261,3860 @@
   <dimension ref="B2:T103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="1" customWidth="1"/>
+    <col min="5" max="14" width="4.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" style="1" customWidth="1"/>
+    <col min="16" max="20" width="74.140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
+        <v>| Atributo | Tipo |</v>
+      </c>
+      <c r="Q3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
+        <v>| Atributo | Tipo | Descripción |</v>
+      </c>
+      <c r="R3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
+        <v>| Atributo | Tipo | Descripción |  |</v>
+      </c>
+      <c r="S3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |",F3," |")</f>
+        <v>| Atributo | Tipo | Descripción |  | |</v>
+      </c>
+      <c r="T3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |",F3," |",G3," |",H3," |",I3," |",J3," |",K3," |",L3," |",M3," |",N3," |")</f>
+        <v>| Atributo | Tipo | Descripción |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
+        <v>|---|---|</v>
+      </c>
+      <c r="Q4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
+        <v>|---|---|---|</v>
+      </c>
+      <c r="R4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
+        <v>|---|---|---|---|</v>
+      </c>
+      <c r="S4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|",F4,"|")</f>
+        <v>|---|---|---|---|---|</v>
+      </c>
+      <c r="T4" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," |",F4," |",G4," |",H4," |",I4," |",J4," |",K4," |",L4," |",M4," |",N4," |")</f>
+        <v>| --- | --- | --- | --- |--- |--- |--- |--- |--- |--- |--- |--- |--- |</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
+        <v>| CodigoEstacion | int64 |</v>
+      </c>
+      <c r="Q5" s="5" t="str">
+        <f t="shared" ref="Q5:Q24" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
+        <v>| CodigoEstacion | int64 | Código de la estación. |</v>
+      </c>
+      <c r="R5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
+        <v>| CodigoEstacion | int64 | Código de la estación. |  |</v>
+      </c>
+      <c r="S5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |",F5," |")</f>
+        <v>| CodigoEstacion | int64 | Código de la estación. |  | |</v>
+      </c>
+      <c r="T5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |",F5," |",G5," |",H5," |",I5," |",J5," |",K5," |",L5," |",M5," |",N5," |")</f>
+        <v>| CodigoEstacion | int64 | Código de la estación. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5" t="str">
+        <f t="shared" ref="P6:P24" si="1">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>| NombreEstacion | object |</v>
+      </c>
+      <c r="Q6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| NombreEstacion | object | Nombre de la estación. Incluye el código de la estación entre corchetes. |</v>
+      </c>
+      <c r="R6" s="5" t="str">
+        <f t="shared" ref="R6:R67" si="2">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," |")</f>
+        <v>| NombreEstacion | object | Nombre de la estación. Incluye el código de la estación entre corchetes. |  |</v>
+      </c>
+      <c r="S6" s="5" t="str">
+        <f t="shared" ref="S6:S69" si="3">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," |",F6," |")</f>
+        <v>| NombreEstacion | object | Nombre de la estación. Incluye el código de la estación entre corchetes. |  | |</v>
+      </c>
+      <c r="T6" s="5" t="str">
+        <f t="shared" ref="T6:T69" si="4">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," |",F6," |",G6," |",H6," |",I6," |",J6," |",K6," |",L6," |",M6," |",N6," |")</f>
+        <v>| NombreEstacion | object | Nombre de la estación. Incluye el código de la estación entre corchetes. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Latitud | float64 |</v>
+      </c>
+      <c r="Q7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Latitud | float64 | Latitud en grados decimales. |</v>
+      </c>
+      <c r="R7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Latitud | float64 | Latitud en grados decimales. |  |</v>
+      </c>
+      <c r="S7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| Latitud | float64 | Latitud en grados decimales. |  | |</v>
+      </c>
+      <c r="T7" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Latitud | float64 | Latitud en grados decimales. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Longitud | float64 |</v>
+      </c>
+      <c r="Q8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Longitud | float64 | Longitud en grados decimales. |</v>
+      </c>
+      <c r="R8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Longitud | float64 | Longitud en grados decimales. |  |</v>
+      </c>
+      <c r="S8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| Longitud | float64 | Longitud en grados decimales. |  | |</v>
+      </c>
+      <c r="T8" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Longitud | float64 | Longitud en grados decimales. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Altitud | int64 |</v>
+      </c>
+      <c r="Q9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Altitud | int64 | Altitud o cota sobre el nivel del mar en metros. |</v>
+      </c>
+      <c r="R9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Altitud | int64 | Altitud o cota sobre el nivel del mar en metros. |  |</v>
+      </c>
+      <c r="S9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| Altitud | int64 | Altitud o cota sobre el nivel del mar en metros. |  | |</v>
+      </c>
+      <c r="T9" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Altitud | int64 | Altitud o cota sobre el nivel del mar en metros. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Categoria | object |</v>
+      </c>
+      <c r="Q10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Categoria | object | Categoría de la estación: Pluviométrica, Limnimétrica, Limnigráfica, Climática Ordinaria, Climática Principal, Pluviográfica, Meteorológica Especial, Agrometeorológica, Sinóptica Principal, Radio Sonda, Mareográfica, Sinóptica Secundaria. |</v>
+      </c>
+      <c r="R10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Categoria | object | Categoría de la estación: Pluviométrica, Limnimétrica, Limnigráfica, Climática Ordinaria, Climática Principal, Pluviográfica, Meteorológica Especial, Agrometeorológica, Sinóptica Principal, Radio Sonda, Mareográfica, Sinóptica Secundaria. |  |</v>
+      </c>
+      <c r="S10" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| Categoria | object | Categoría de la estación: Pluviométrica, Limnimétrica, Limnigráfica, Climática Ordinaria, Climática Principal, Pluviográfica, Meteorológica Especial, Agrometeorológica, Sinóptica Principal, Radio Sonda, Mareográfica, Sinóptica Secundaria. |  | |</v>
+      </c>
+      <c r="T10" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Categoria | object | Categoría de la estación: Pluviométrica, Limnimétrica, Limnigráfica, Climática Ordinaria, Climática Principal, Pluviográfica, Meteorológica Especial, Agrometeorológica, Sinóptica Principal, Radio Sonda, Mareográfica, Sinóptica Secundaria. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Entidad | object |</v>
+      </c>
+      <c r="Q11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Entidad | object | Entidad encargada. |</v>
+      </c>
+      <c r="R11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Entidad | object | Entidad encargada. |  |</v>
+      </c>
+      <c r="S11" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| Entidad | object | Entidad encargada. |  | |</v>
+      </c>
+      <c r="T11" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Entidad | object | Entidad encargada. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| AreaOperativa | object |</v>
+      </c>
+      <c r="Q12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| AreaOperativa | object | Área operativa que administra la estación. AREA_OPERA en archivos Shapefile. |</v>
+      </c>
+      <c r="R12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| AreaOperativa | object | Área operativa que administra la estación. AREA_OPERA en archivos Shapefile. |  |</v>
+      </c>
+      <c r="S12" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| AreaOperativa | object | Área operativa que administra la estación. AREA_OPERA en archivos Shapefile. |  | |</v>
+      </c>
+      <c r="T12" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| AreaOperativa | object | Área operativa que administra la estación. AREA_OPERA en archivos Shapefile. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Departamento | object |</v>
+      </c>
+      <c r="Q13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Departamento | object | Departamento o zonificación política. Equivalente a estados en otros países. DEPARTAMEN en archivos Shapefile. |</v>
+      </c>
+      <c r="R13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Departamento | object | Departamento o zonificación política. Equivalente a estados en otros países. DEPARTAMEN en archivos Shapefile. |  |</v>
+      </c>
+      <c r="S13" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| Departamento | object | Departamento o zonificación política. Equivalente a estados en otros países. DEPARTAMEN en archivos Shapefile. |  | |</v>
+      </c>
+      <c r="T13" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Departamento | object | Departamento o zonificación política. Equivalente a estados en otros países. DEPARTAMEN en archivos Shapefile. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Municipio | object |</v>
+      </c>
+      <c r="Q14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Municipio | object | Municipio o subzonificación política. Equivalente a condado en otros países. |</v>
+      </c>
+      <c r="R14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Municipio | object | Municipio o subzonificación política. Equivalente a condado en otros países. |  |</v>
+      </c>
+      <c r="S14" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| Municipio | object | Municipio o subzonificación política. Equivalente a condado en otros países. |  | |</v>
+      </c>
+      <c r="T14" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Municipio | object | Municipio o subzonificación política. Equivalente a condado en otros países. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| FechaInstalacion | datetime64 |</v>
+      </c>
+      <c r="Q15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| FechaInstalacion | datetime64 | Fecha de instalación. FECHA_INST en archivos dBase. |</v>
+      </c>
+      <c r="R15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| FechaInstalacion | datetime64 | Fecha de instalación. FECHA_INST en archivos dBase. |  |</v>
+      </c>
+      <c r="S15" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| FechaInstalacion | datetime64 | Fecha de instalación. FECHA_INST en archivos dBase. |  | |</v>
+      </c>
+      <c r="T15" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| FechaInstalacion | datetime64 | Fecha de instalación. FECHA_INST en archivos dBase. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| FechaSuspension | datetime64 |</v>
+      </c>
+      <c r="Q16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| FechaSuspension | datetime64 | Fecha de suspensión. FECHA_SUSP en archivos dBase. |</v>
+      </c>
+      <c r="R16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| FechaSuspension | datetime64 | Fecha de suspensión. FECHA_SUSP en archivos dBase. |  |</v>
+      </c>
+      <c r="S16" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| FechaSuspension | datetime64 | Fecha de suspensión. FECHA_SUSP en archivos dBase. |  | |</v>
+      </c>
+      <c r="T16" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| FechaSuspension | datetime64 | Fecha de suspensión. FECHA_SUSP en archivos dBase. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| IdParametro | object |</v>
+      </c>
+      <c r="Q17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| IdParametro | object | Nombre del parámetro hidro-climatológico. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |</v>
+      </c>
+      <c r="R17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| IdParametro | object | Nombre del parámetro hidro-climatológico. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |  |</v>
+      </c>
+      <c r="S17" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| IdParametro | object | Nombre del parámetro hidro-climatológico. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |  | |</v>
+      </c>
+      <c r="T17" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| IdParametro | object | Nombre del parámetro hidro-climatológico. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Etiqueta | object |</v>
+      </c>
+      <c r="Q18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Etiqueta | object | Etiqueta del parámetro que depende si es una variable básica o derivada. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |</v>
+      </c>
+      <c r="R18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Etiqueta | object | Etiqueta del parámetro que depende si es una variable básica o derivada. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |  |</v>
+      </c>
+      <c r="S18" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| Etiqueta | object | Etiqueta del parámetro que depende si es una variable básica o derivada. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |  | |</v>
+      </c>
+      <c r="T18" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Etiqueta | object | Etiqueta del parámetro que depende si es una variable básica o derivada. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="57" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| DescripcionSerie | object |</v>
+      </c>
+      <c r="Q19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| DescripcionSerie | object | Descripción de la etiqueta del parámetro que indica el nombre del parámetro el estadístico y la frecuencia. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |</v>
+      </c>
+      <c r="R19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| DescripcionSerie | object | Descripción de la etiqueta del parámetro que indica el nombre del parámetro el estadístico y la frecuencia. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |  |</v>
+      </c>
+      <c r="S19" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| DescripcionSerie | object | Descripción de la etiqueta del parámetro que indica el nombre del parámetro el estadístico y la frecuencia. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |  | |</v>
+      </c>
+      <c r="T19" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| DescripcionSerie | object | Descripción de la etiqueta del parámetro que indica el nombre del parámetro el estadístico y la frecuencia. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Frecuencia | object |</v>
+      </c>
+      <c r="Q20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Frecuencia | object | Frecuencia de captura o de cálculo. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |</v>
+      </c>
+      <c r="R20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Frecuencia | object | Frecuencia de captura o de cálculo. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |  |</v>
+      </c>
+      <c r="S20" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| Frecuencia | object | Frecuencia de captura o de cálculo. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |  | |</v>
+      </c>
+      <c r="T20" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Frecuencia | object | Frecuencia de captura o de cálculo. Ver Glosario de variables IDEAM en servicio DHIME en la pestaña Recursos. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Fecha | datetime64 |</v>
+      </c>
+      <c r="Q21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Fecha | datetime64 | Fecha de registro. |</v>
+      </c>
+      <c r="R21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Fecha | datetime64 | Fecha de registro. |  |</v>
+      </c>
+      <c r="S21" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| Fecha | datetime64 | Fecha de registro. |  | |</v>
+      </c>
+      <c r="T21" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Fecha | datetime64 | Fecha de registro. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Valor | float64 |</v>
+      </c>
+      <c r="Q22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Valor | float64 | Valor registrado. |</v>
+      </c>
+      <c r="R22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Valor | float64 | Valor registrado. |  |</v>
+      </c>
+      <c r="S22" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| Valor | float64 | Valor registrado. |  | |</v>
+      </c>
+      <c r="T22" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Valor | float64 | Valor registrado. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Grado | int64 |</v>
+      </c>
+      <c r="Q23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Grado | int64 | Grado del dato, p. ej. -1, 4, 5, 50. |</v>
+      </c>
+      <c r="R23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Grado | int64 | Grado del dato, p. ej. -1, 4, 5, 50. |  |</v>
+      </c>
+      <c r="S23" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| Grado | int64 | Grado del dato, p. ej. -1, 4, 5, 50. |  | |</v>
+      </c>
+      <c r="T23" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Grado | int64 | Grado del dato, p. ej. -1, 4, 5, 50. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Calificador | object |</v>
+      </c>
+      <c r="Q24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Calificador | object | Calificador del dato registrado, p. ej. Dudoso, Est. Interpolación, Est. Otros métodos, Est. Regresión, Estimado, Río Seco, Sección Inestable. |</v>
+      </c>
+      <c r="R24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Calificador | object | Calificador del dato registrado, p. ej. Dudoso, Est. Interpolación, Est. Otros métodos, Est. Regresión, Estimado, Río Seco, Sección Inestable. |  |</v>
+      </c>
+      <c r="S24" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| Calificador | object | Calificador del dato registrado, p. ej. Dudoso, Est. Interpolación, Est. Otros métodos, Est. Regresión, Estimado, Río Seco, Sección Inestable. |  | |</v>
+      </c>
+      <c r="T24" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Calificador | object | Calificador del dato registrado, p. ej. Dudoso, Est. Interpolación, Est. Otros métodos, Est. Regresión, Estimado, Río Seco, Sección Inestable. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="5" t="str">
+        <f t="shared" ref="P25:P88" si="5">_xlfn.CONCAT("| ",B25," | ",C25," |")</f>
+        <v>| NivelAprobacion | int64 |</v>
+      </c>
+      <c r="Q25" s="5" t="str">
+        <f t="shared" ref="Q25:Q88" si="6">_xlfn.CONCAT("| ",B25," | ",C25," | ",D25," |")</f>
+        <v>| NivelAprobacion | int64 | Nivel de aprobación. |</v>
+      </c>
+      <c r="R25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| NivelAprobacion | int64 | Nivel de aprobación. |  |</v>
+      </c>
+      <c r="S25" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>| NivelAprobacion | int64 | Nivel de aprobación. |  | |</v>
+      </c>
+      <c r="T25" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| NivelAprobacion | int64 | Nivel de aprobación. |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q26" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S26" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T26" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q27" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S27" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T27" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q28" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S28" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T28" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q29" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S29" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T29" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q30" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S30" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T30" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q31" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S31" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T31" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q32" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S32" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T32" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q33" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R33" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S33" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T33" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q34" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R34" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S34" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T34" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q35" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R35" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S35" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T35" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q36" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R36" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S36" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T36" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q37" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R37" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S37" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T37" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q38" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R38" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S38" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T38" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q39" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S39" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T39" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q40" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R40" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S40" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T40" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q41" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S41" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T41" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q42" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S42" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T42" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q43" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S43" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T43" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q44" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S44" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T44" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q45" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R45" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S45" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q46" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R46" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S46" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T46" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q47" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R47" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S47" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T47" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q48" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S48" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T48" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q49" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R49" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S49" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T49" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q50" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R50" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S50" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T50" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q51" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R51" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S51" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T51" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q52" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R52" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S52" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T52" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q53" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R53" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S53" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T53" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q54" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R54" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S54" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T54" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q55" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R55" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S55" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T55" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q56" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R56" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S56" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T56" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q57" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R57" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S57" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T57" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q58" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R58" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S58" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T58" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q59" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R59" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S59" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T59" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q60" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R60" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S60" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T60" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q61" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R61" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S61" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T61" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q62" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S62" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T62" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q63" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R63" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S63" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T63" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q64" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R64" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S64" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T64" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q65" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R65" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S65" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T65" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q66" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R66" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S66" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T66" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q67" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R67" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S67" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T67" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q68" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R68" s="5" t="str">
+        <f t="shared" ref="R68:R103" si="7">_xlfn.CONCAT("| ",B68," | ",C68," | ",D68," | ",E68," |")</f>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S68" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T68" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q69" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R69" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S69" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T69" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q70" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R70" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S70" s="5" t="str">
+        <f t="shared" ref="S70:S103" si="8">_xlfn.CONCAT("| ",B70," | ",C70," | ",D70," | ",E70," |",F70," |")</f>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T70" s="5" t="str">
+        <f t="shared" ref="T70:T103" si="9">_xlfn.CONCAT("| ",B70," | ",C70," | ",D70," | ",E70," |",F70," |",G70," |",H70," |",I70," |",J70," |",K70," |",L70," |",M70," |",N70," |")</f>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q71" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R71" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S71" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T71" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q72" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R72" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S72" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T72" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q73" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R73" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S73" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T73" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q74" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R74" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S74" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T74" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q75" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R75" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S75" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T75" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q76" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R76" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S76" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T76" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q77" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R77" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S77" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T77" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q78" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R78" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S78" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T78" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q79" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R79" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S79" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T79" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q80" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R80" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S80" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T80" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q81" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R81" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S81" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T81" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q82" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R82" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S82" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T82" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q83" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R83" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S83" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T83" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q84" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R84" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S84" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T84" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q85" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R85" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S85" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T85" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q86" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R86" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S86" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T86" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q87" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R87" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S87" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T87" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q88" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R88" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S88" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T88" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="5" t="str">
+        <f t="shared" ref="P89:P103" si="10">_xlfn.CONCAT("| ",B89," | ",C89," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q89" s="5" t="str">
+        <f t="shared" ref="Q89:Q103" si="11">_xlfn.CONCAT("| ",B89," | ",C89," | ",D89," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R89" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S89" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T89" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q90" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R90" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S90" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T90" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q91" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R91" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S91" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T91" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q92" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R92" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S92" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T92" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q93" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R93" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S93" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T93" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q94" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R94" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S94" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T94" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q95" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R95" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S95" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T95" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q96" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R96" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S96" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T96" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q97" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R97" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S97" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T97" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q98" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R98" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S98" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T98" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q99" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R99" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S99" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T99" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q100" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R100" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S100" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T100" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q101" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R101" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S101" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T101" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q102" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R102" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S102" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T102" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="Q103" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="R103" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+      <c r="S103" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | |</v>
+      </c>
+      <c r="T103" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68F43E2-C7E0-46B7-B225-DC24B987643F}">
+  <dimension ref="B2:T103"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -826,7 +5323,7 @@
         <v>| Precipitación | ✓ |</v>
       </c>
       <c r="Q5" s="5" t="str">
-        <f t="shared" ref="Q5:Q24" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
+        <f t="shared" ref="Q5:Q68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
         <v>| Precipitación | ✓ | ✓ |</v>
       </c>
       <c r="R5" s="5" t="str">
@@ -870,7 +5367,7 @@
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5" t="str">
-        <f t="shared" ref="P6:P24" si="1">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <f t="shared" ref="P6:P69" si="1">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
         <v>| Temperatura del aire cerca al suelo | ✓ |</v>
       </c>
       <c r="Q6" s="5" t="str">
@@ -878,11 +5375,11 @@
         <v>| Temperatura del aire cerca al suelo | ✓ | ✓ |</v>
       </c>
       <c r="R6" s="5" t="str">
-        <f t="shared" ref="R6:R67" si="2">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," |")</f>
+        <f t="shared" ref="R6:R69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," |")</f>
         <v>| Temperatura del aire cerca al suelo | ✓ | ✓ | ✓ |</v>
       </c>
       <c r="S6" s="5" t="str">
-        <f t="shared" ref="S6:T69" si="3">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," |",F6," |")</f>
+        <f t="shared" ref="S6:S69" si="3">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," |",F6," |")</f>
         <v>| Temperatura del aire cerca al suelo | ✓ | ✓ | ✓ | |</v>
       </c>
       <c r="T6" s="5" t="str">
@@ -1686,11 +6183,11 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="5" t="str">
-        <f t="shared" ref="P25:P88" si="5">_xlfn.CONCAT("| ",B25," | ",C25," |")</f>
+        <f t="shared" si="1"/>
         <v>| Heladas |  |</v>
       </c>
       <c r="Q25" s="5" t="str">
-        <f t="shared" ref="Q25:Q88" si="6">_xlfn.CONCAT("| ",B25," | ",C25," | ",D25," |")</f>
+        <f t="shared" si="0"/>
         <v>| Heladas |  |  |</v>
       </c>
       <c r="R25" s="5" t="str">
@@ -1726,11 +6223,11 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Temperatura del aire en capa alta de atmósfera |  |</v>
       </c>
       <c r="Q26" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Temperatura del aire en capa alta de atmósfera |  |  |</v>
       </c>
       <c r="R26" s="5" t="str">
@@ -1766,11 +6263,11 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Presión en capa alta de atmósfera |  |</v>
       </c>
       <c r="Q27" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Presión en capa alta de atmósfera |  |  |</v>
       </c>
       <c r="R27" s="5" t="str">
@@ -1806,11 +6303,11 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Humedad relativa en capa alta de atmósfera |  |</v>
       </c>
       <c r="Q28" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Humedad relativa en capa alta de atmósfera |  |  |</v>
       </c>
       <c r="R28" s="5" t="str">
@@ -1846,11 +6343,11 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Viento - Dirección en capa alta de atmósfera |  |</v>
       </c>
       <c r="Q29" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Viento - Dirección en capa alta de atmósfera |  |  |</v>
       </c>
       <c r="R29" s="5" t="str">
@@ -1886,11 +6383,11 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Viento - Velocidad en capa alta de atmósfera |  |</v>
       </c>
       <c r="Q30" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Viento - Velocidad en capa alta de atmósfera |  |  |</v>
       </c>
       <c r="R30" s="5" t="str">
@@ -1928,11 +6425,11 @@
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Presión atmosférica cercana al suelo |  |</v>
       </c>
       <c r="Q31" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Presión atmosférica cercana al suelo |  |  |</v>
       </c>
       <c r="R31" s="5" t="str">
@@ -1968,11 +6465,11 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Nubosidad - Tipo |  |</v>
       </c>
       <c r="Q32" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Nubosidad - Tipo |  |  |</v>
       </c>
       <c r="R32" s="5" t="str">
@@ -2008,11 +6505,11 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Nubosidad - Altura de nubes |  |</v>
       </c>
       <c r="Q33" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Nubosidad - Altura de nubes |  |  |</v>
       </c>
       <c r="R33" s="5" t="str">
@@ -2050,11 +6547,11 @@
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Visibilidad |  |</v>
       </c>
       <c r="Q34" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Visibilidad |  |  |</v>
       </c>
       <c r="R34" s="5" t="str">
@@ -2090,11 +6587,11 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Humedad - Características |  |</v>
       </c>
       <c r="Q35" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Humedad - Características |  |  |</v>
       </c>
       <c r="R35" s="5" t="str">
@@ -2130,11 +6627,11 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Temperaturas extremas |  |</v>
       </c>
       <c r="Q36" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Temperaturas extremas |  |  |</v>
       </c>
       <c r="R36" s="5" t="str">
@@ -2170,11 +6667,11 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Nubosidad - Capas significativas |  |</v>
       </c>
       <c r="Q37" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Nubosidad - Capas significativas |  |  |</v>
       </c>
       <c r="R37" s="5" t="str">
@@ -2216,11 +6713,11 @@
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Viento - Recorrido | ✓ |</v>
       </c>
       <c r="Q38" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Viento - Recorrido | ✓ |  |</v>
       </c>
       <c r="R38" s="5" t="str">
@@ -2258,11 +6755,11 @@
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Secuencia fenómenos atmosféricos |  |</v>
       </c>
       <c r="Q39" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Secuencia fenómenos atmosféricos |  |  |</v>
       </c>
       <c r="R39" s="5" t="str">
@@ -2298,11 +6795,11 @@
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Tiempo atmosférico |  |</v>
       </c>
       <c r="Q40" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Tiempo atmosférico |  |  |</v>
       </c>
       <c r="R40" s="5" t="str">
@@ -2338,11 +6835,11 @@
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>| Estado del suelo |  |</v>
       </c>
       <c r="Q41" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>| Estado del suelo |  |  |</v>
       </c>
       <c r="R41" s="5" t="str">
@@ -2374,11 +6871,11 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q42" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R42" s="5" t="str">
@@ -2410,11 +6907,11 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q43" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R43" s="5" t="str">
@@ -2446,11 +6943,11 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q44" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R44" s="5" t="str">
@@ -2482,11 +6979,11 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q45" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R45" s="5" t="str">
@@ -2518,11 +7015,11 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q46" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R46" s="5" t="str">
@@ -2554,11 +7051,11 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q47" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R47" s="5" t="str">
@@ -2590,11 +7087,11 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q48" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R48" s="5" t="str">
@@ -2626,11 +7123,11 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q49" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R49" s="5" t="str">
@@ -2662,11 +7159,11 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q50" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R50" s="5" t="str">
@@ -2698,11 +7195,11 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q51" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R51" s="5" t="str">
@@ -2734,11 +7231,11 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q52" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R52" s="5" t="str">
@@ -2770,11 +7267,11 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q53" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R53" s="5" t="str">
@@ -2806,11 +7303,11 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q54" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R54" s="5" t="str">
@@ -2842,11 +7339,11 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q55" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R55" s="5" t="str">
@@ -2878,11 +7375,11 @@
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q56" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R56" s="5" t="str">
@@ -2914,11 +7411,11 @@
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q57" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R57" s="5" t="str">
@@ -2950,11 +7447,11 @@
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q58" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R58" s="5" t="str">
@@ -2986,11 +7483,11 @@
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q59" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R59" s="5" t="str">
@@ -3022,11 +7519,11 @@
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q60" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R60" s="5" t="str">
@@ -3058,11 +7555,11 @@
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q61" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R61" s="5" t="str">
@@ -3094,11 +7591,11 @@
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q62" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R62" s="5" t="str">
@@ -3130,11 +7627,11 @@
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q63" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R63" s="5" t="str">
@@ -3166,11 +7663,11 @@
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q64" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R64" s="5" t="str">
@@ -3202,11 +7699,11 @@
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q65" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R65" s="5" t="str">
@@ -3238,11 +7735,11 @@
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q66" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R66" s="5" t="str">
@@ -3274,11 +7771,11 @@
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q67" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R67" s="5" t="str">
@@ -3310,15 +7807,15 @@
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q68" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R68" s="5" t="str">
-        <f t="shared" ref="R68:R103" si="7">_xlfn.CONCAT("| ",B68," | ",C68," | ",D68," | ",E68," |")</f>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
       <c r="S68" s="5" t="str">
@@ -3346,15 +7843,15 @@
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>|  |  |</v>
       </c>
       <c r="Q69" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="Q69:Q132" si="5">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
         <v>|  |  |  |</v>
       </c>
       <c r="R69" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
       <c r="S69" s="5" t="str">
@@ -3382,19 +7879,19 @@
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="P70:P133" si="6">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
         <v>|  |  |</v>
       </c>
       <c r="Q70" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R70" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="R70:R105" si="7">_xlfn.CONCAT("| ",B70," | ",C70," | ",D70," | ",E70," |")</f>
         <v>|  |  |  |  |</v>
       </c>
       <c r="S70" s="5" t="str">
-        <f t="shared" ref="S70:T103" si="8">_xlfn.CONCAT("| ",B70," | ",C70," | ",D70," | ",E70," |",F70," |")</f>
+        <f t="shared" ref="S70:S103" si="8">_xlfn.CONCAT("| ",B70," | ",C70," | ",D70," | ",E70," |",F70," |")</f>
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T70" s="5" t="str">
@@ -3418,11 +7915,11 @@
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q71" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R71" s="5" t="str">
@@ -3454,11 +7951,11 @@
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q72" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R72" s="5" t="str">
@@ -3490,11 +7987,11 @@
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q73" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R73" s="5" t="str">
@@ -3526,11 +8023,11 @@
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q74" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R74" s="5" t="str">
@@ -3562,11 +8059,11 @@
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q75" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R75" s="5" t="str">
@@ -3598,11 +8095,11 @@
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
       <c r="P76" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q76" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R76" s="5" t="str">
@@ -3634,11 +8131,11 @@
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q77" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R77" s="5" t="str">
@@ -3670,11 +8167,11 @@
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q78" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R78" s="5" t="str">
@@ -3706,11 +8203,11 @@
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q79" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R79" s="5" t="str">
@@ -3742,11 +8239,11 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q80" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R80" s="5" t="str">
@@ -3778,11 +8275,11 @@
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q81" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R81" s="5" t="str">
@@ -3814,11 +8311,11 @@
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q82" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R82" s="5" t="str">
@@ -3850,11 +8347,11 @@
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q83" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R83" s="5" t="str">
@@ -3886,11 +8383,11 @@
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q84" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R84" s="5" t="str">
@@ -3922,11 +8419,11 @@
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q85" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R85" s="5" t="str">
@@ -3958,11 +8455,11 @@
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q86" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R86" s="5" t="str">
@@ -3994,11 +8491,11 @@
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q87" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R87" s="5" t="str">
@@ -4030,11 +8527,11 @@
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q88" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R88" s="5" t="str">
@@ -4066,11 +8563,11 @@
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="5" t="str">
-        <f t="shared" ref="P89:P103" si="10">_xlfn.CONCAT("| ",B89," | ",C89," |")</f>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q89" s="5" t="str">
-        <f t="shared" ref="Q89:Q103" si="11">_xlfn.CONCAT("| ",B89," | ",C89," | ",D89," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R89" s="5" t="str">
@@ -4102,11 +8599,11 @@
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q90" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R90" s="5" t="str">
@@ -4138,11 +8635,11 @@
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q91" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R91" s="5" t="str">
@@ -4174,11 +8671,11 @@
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q92" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R92" s="5" t="str">
@@ -4210,11 +8707,11 @@
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q93" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R93" s="5" t="str">
@@ -4246,11 +8743,11 @@
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q94" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R94" s="5" t="str">
@@ -4282,11 +8779,11 @@
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q95" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R95" s="5" t="str">
@@ -4318,11 +8815,11 @@
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q96" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R96" s="5" t="str">
@@ -4354,11 +8851,11 @@
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q97" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R97" s="5" t="str">
@@ -4390,11 +8887,11 @@
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q98" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R98" s="5" t="str">
@@ -4426,11 +8923,11 @@
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q99" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R99" s="5" t="str">
@@ -4462,11 +8959,11 @@
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q100" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R100" s="5" t="str">
@@ -4498,11 +8995,11 @@
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
       <c r="P101" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q101" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R101" s="5" t="str">
@@ -4534,11 +9031,11 @@
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q102" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R102" s="5" t="str">
@@ -4570,11 +9067,11 @@
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="Q103" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R103" s="5" t="str">
